--- a/鲲.xlsx
+++ b/鲲.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="16680" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>总览</t>
   </si>
@@ -66,7 +66,7 @@
     <t>特殊</t>
   </si>
   <si>
-    <t>缓慢生成怪物，30秒，速度慢,A</t>
+    <t>缓慢生成怪物，30秒，速度慢,AC</t>
   </si>
   <si>
     <t>跟踪鱼群</t>
@@ -75,7 +75,7 @@
     <t>生成大量跟踪鱼群，难度三开始有概率出现</t>
   </si>
   <si>
-    <t>缓慢生成较多怪物，90秒，速度中,AB</t>
+    <t>缓慢生成较多怪物，90秒，速度中,ABC</t>
   </si>
   <si>
     <t>竖直鱼群</t>
@@ -84,22 +84,25 @@
     <t>规律生成大量竖直鱼群，难度三开始概率出现</t>
   </si>
   <si>
-    <t>快速生成怪物较多怪物，120秒，速度快,ABC</t>
-  </si>
-  <si>
-    <t>快速生成许多怪物，无限，速度快,ABC</t>
+    <t>快速生成怪物较多怪物，120秒，速度快,ABCD</t>
+  </si>
+  <si>
+    <t>快速生成许多怪物，无限，速度快,ABCD</t>
   </si>
   <si>
     <t>障碍物</t>
   </si>
   <si>
-    <t>怪物A：固定轨迹</t>
-  </si>
-  <si>
-    <t>怪物B：一定时间（角度？）内跟踪，方向逐渐转向player直到不再跟踪</t>
-  </si>
-  <si>
-    <t>怪物C：较大范围扫过</t>
+    <t>怪物0：固定轨迹</t>
+  </si>
+  <si>
+    <t>怪物1：S型走位</t>
+  </si>
+  <si>
+    <t>怪物2：较大体积的缓慢移动怪物</t>
+  </si>
+  <si>
+    <t>怪物3：小体积，竖直加速</t>
   </si>
   <si>
     <t>石头：固定位置</t>
@@ -111,22 +114,22 @@
     <t>攻击力（精华量）</t>
   </si>
   <si>
-    <t>怪物A</t>
+    <t>怪物0</t>
   </si>
   <si>
     <t>-10</t>
   </si>
   <si>
-    <t>怪物B</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>怪物C</t>
+    <t>怪物1</t>
+  </si>
+  <si>
+    <t>怪物2</t>
   </si>
   <si>
     <t>-30</t>
+  </si>
+  <si>
+    <t>怪物3</t>
   </si>
   <si>
     <t>石头</t>
@@ -249,9 +252,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -276,21 +279,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,15 +299,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,6 +322,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -342,37 +369,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -395,9 +391,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,192 +449,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -655,11 +658,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,27 +723,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -738,17 +762,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,10 +789,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,137 +801,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -926,6 +955,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1343,10 +1378,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1579,271 +1614,286 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" ht="24" customHeight="1" spans="2:5">
-      <c r="B35" s="6" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="6"/>
     </row>
     <row r="36" ht="24" customHeight="1" spans="2:5">
       <c r="B36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="E36" s="6"/>
     </row>
     <row r="37" ht="24" customHeight="1" spans="2:5">
       <c r="B37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="E37" s="6"/>
     </row>
     <row r="38" ht="24" customHeight="1" spans="2:5">
       <c r="B38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="2:5">
+      <c r="B39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="13" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="2:5">
-      <c r="B39" s="8" t="s">
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="2:5">
+      <c r="B40" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" ht="13" customHeight="1" spans="2:5">
-      <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+      <c r="D40" s="8">
+        <v>-10</v>
+      </c>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="1" t="s">
+    <row r="41" ht="24" customHeight="1" spans="2:5">
+      <c r="B41" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
+      <c r="C41" s="10"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" ht="13" customHeight="1" spans="2:5">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="3:3">
-      <c r="C46" s="1" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="1" t="s">
+    <row r="48" spans="3:3">
+      <c r="C48" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="1" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" ht="24" customHeight="1" spans="2:7">
-      <c r="B53" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6" t="s">
+    <row r="53" spans="3:3">
+      <c r="C53" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="G53" s="1" t="s">
+    </row>
+    <row r="55" ht="24" customHeight="1" spans="2:7">
+      <c r="B55" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="54" ht="30" customHeight="1" spans="2:8">
-      <c r="B54" s="6" t="s">
+      <c r="E55" s="6"/>
+      <c r="G55" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6" t="s">
+    </row>
+    <row r="56" ht="30" customHeight="1" spans="2:8">
+      <c r="B56" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="H54" s="1" t="s">
+      <c r="C56" s="6"/>
+      <c r="D56" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" ht="24" customHeight="1" spans="2:5">
-      <c r="B55" s="6" t="s">
+      <c r="E56" s="6"/>
+      <c r="H56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="13" t="s">
+    </row>
+    <row r="57" ht="24" customHeight="1" spans="2:5">
+      <c r="B57" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" ht="24" customHeight="1" spans="2:5">
-      <c r="B56" s="6" t="s">
+      <c r="C57" s="6"/>
+      <c r="D57" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6">
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" ht="24" customHeight="1" spans="2:5">
+      <c r="B58" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6">
         <v>-70</v>
       </c>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="62" ht="20" customHeight="1" spans="2:5">
-      <c r="B62" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6" t="s">
+      <c r="E58" s="6"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" ht="20" customHeight="1" spans="2:5">
-      <c r="B63" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E63" s="10"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
     </row>
     <row r="64" ht="20" customHeight="1" spans="2:5">
       <c r="B64" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C64" s="6"/>
-      <c r="D64" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E64" s="10"/>
+      <c r="D64" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" ht="20" customHeight="1" spans="2:5">
       <c r="B65" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" s="12"/>
+    </row>
+    <row r="66" ht="20" customHeight="1" spans="2:5">
+      <c r="B66" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="10" t="s">
+      <c r="E66" s="12"/>
+    </row>
+    <row r="67" ht="20" customHeight="1" spans="2:5">
+      <c r="B67" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="10"/>
-    </row>
-    <row r="66" ht="37" customHeight="1" spans="1:5">
-      <c r="A66" s="11"/>
-      <c r="B66" s="6" t="s">
+      <c r="C67" s="6"/>
+      <c r="D67" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="14" t="s">
+      <c r="E67" s="12"/>
+    </row>
+    <row r="68" ht="37" customHeight="1" spans="1:5">
+      <c r="A68" s="13"/>
+      <c r="B68" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E66" s="12"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="2" t="s">
+      <c r="C68" s="6"/>
+      <c r="D68" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="1" t="s">
+      <c r="E68" s="14"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="1" t="s">
         <v>74</v>
       </c>
     </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="44">
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="H22:K22"/>
@@ -1858,8 +1908,6 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="B37:C37"/>
@@ -1868,24 +1916,28 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/鲲.xlsx
+++ b/鲲.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16680" windowHeight="12195"/>
+    <workbookView windowWidth="14400" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
     <t>神秘礼物</t>
   </si>
   <si>
-    <t>+30精华/-15精华，概率（6/4），最低减到1</t>
+    <t>+50精华/-25精华，概率（6/4），最低减到1</t>
   </si>
   <si>
     <t>要点</t>
@@ -279,14 +279,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,10 +376,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,15 +391,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,75 +408,19 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -449,187 +449,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,6 +684,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -709,21 +748,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -738,26 +762,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,17 +781,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -789,10 +789,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -801,133 +801,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1380,8 +1380,8 @@
   <sheetPr/>
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
